--- a/exports/Profit_Summary_undefined_undefined.xlsx
+++ b/exports/Profit_Summary_undefined_undefined.xlsx
@@ -35,33 +35,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
   <numFmts count="27">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="mmm\-yyyy"/>
-    <numFmt numFmtId="166" formatCode="[$$]#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="d\-mmm\-yyyy"/>
-    <numFmt numFmtId="168" formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy"/>
-    <numFmt numFmtId="169" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="170" formatCode="yyyy/mm/dd\ h:mm"/>
-    <numFmt numFmtId="171" formatCode="yyyy/m/d\ h:mm"/>
-    <numFmt numFmtId="172" formatCode="yyyy/m/d"/>
-    <numFmt numFmtId="173" formatCode="m/d/yy"/>
-    <numFmt numFmtId="174" formatCode="&quot;$&quot;#,##0.0"/>
-    <numFmt numFmtId="175" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="176" formatCode="mmmd"/>
-    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="178" formatCode="dmmm"/>
-    <numFmt numFmtId="179" formatCode="mmmmd"/>
-    <numFmt numFmtId="180" formatCode="#,##0[$ ₫]"/>
-    <numFmt numFmtId="181" formatCode="d\ mmmm\,\ yyyy"/>
-    <numFmt numFmtId="182" formatCode="[$ $]#,##0.00"/>
-    <numFmt numFmtId="183" formatCode="dd\ mmmm\,\ yyyy"/>
-    <numFmt numFmtId="184" formatCode="mmmm\ d\,\ yyyy"/>
-    <numFmt numFmtId="185" formatCode="m\-d"/>
-    <numFmt numFmtId="186" formatCode="yyyy\-m"/>
-    <numFmt numFmtId="187" formatCode="d\-mmmm\-yyyy"/>
-    <numFmt numFmtId="188" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="189" formatCode="dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="166" formatCode="d\-mmm\-yyyy"/>
+    <numFmt numFmtId="167" formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy"/>
+    <numFmt numFmtId="168" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="169" formatCode="yyyy/mm/dd\ h:mm"/>
+    <numFmt numFmtId="170" formatCode="yyyy/m/d\ h:mm"/>
+    <numFmt numFmtId="171" formatCode="yyyy/m/d"/>
+    <numFmt numFmtId="172" formatCode="m/d/yy"/>
+    <numFmt numFmtId="173" formatCode="&quot;$&quot;#,##0.0"/>
+    <numFmt numFmtId="174" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="175" formatCode="mmmd"/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="177" formatCode="dmmm"/>
+    <numFmt numFmtId="178" formatCode="mmmmd"/>
+    <numFmt numFmtId="179" formatCode="#,##0[$ ₫]"/>
+    <numFmt numFmtId="180" formatCode="d\ mmmm\,\ yyyy"/>
+    <numFmt numFmtId="181" formatCode="[$ $]#,##0.00"/>
+    <numFmt numFmtId="182" formatCode="dd\ mmmm\,\ yyyy"/>
+    <numFmt numFmtId="183" formatCode="mmmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="184" formatCode="m\-d"/>
+    <numFmt numFmtId="185" formatCode="yyyy\-m"/>
+    <numFmt numFmtId="186" formatCode="d\-mmmm\-yyyy"/>
+    <numFmt numFmtId="187" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="188" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -443,7 +443,7 @@
         <v>CK</v>
       </c>
       <c r="B2">
-        <v>30.77</v>
+        <v>23.95</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>XT</v>
       </c>
       <c r="B3">
-        <v>3266.49</v>
+        <v>2748.07</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>HD</v>
       </c>
       <c r="B4">
-        <v>1580.31</v>
+        <v>1113.05</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>LT</v>
       </c>
       <c r="B5">
-        <v>32.46</v>
+        <v>25.64</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>QH</v>
       </c>
       <c r="B6">
-        <v>71.33</v>
+        <v>67.92</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>JN</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>-3.41</v>
       </c>
     </row>
     <row r="8">
@@ -499,7 +499,7 @@
         <v>CN</v>
       </c>
       <c r="B9">
-        <v>1003.35</v>
+        <v>884.83</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>SH</v>
       </c>
       <c r="B10">
-        <v>23.43</v>
+        <v>18.23</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>MK</v>
       </c>
       <c r="B11">
-        <v>353.33</v>
+        <v>247.97</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>HV</v>
       </c>
       <c r="B12">
-        <v>26.64</v>
+        <v>20.69</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>TH</v>
       </c>
       <c r="B13">
-        <v>170.56</v>
+        <v>81.2</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>HL</v>
       </c>
       <c r="B14">
-        <v>31.86</v>
+        <v>-1.6</v>
       </c>
     </row>
   </sheetData>
@@ -569,7 +569,7 @@
         <v>MK</v>
       </c>
       <c r="B2">
-        <v>735.51</v>
+        <v>559.9</v>
       </c>
     </row>
     <row r="3">
@@ -577,7 +577,7 @@
         <v>AN</v>
       </c>
       <c r="B3">
-        <v>50.44</v>
+        <v>39.37</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
         <v>CA</v>
       </c>
       <c r="B5">
-        <v>1292.71</v>
+        <v>1083.41</v>
       </c>
     </row>
     <row r="6">
@@ -601,7 +601,7 @@
         <v>CN</v>
       </c>
       <c r="B6">
-        <v>687.87</v>
+        <v>488.74</v>
       </c>
     </row>
     <row r="7">
@@ -609,7 +609,7 @@
         <v>HV</v>
       </c>
       <c r="B7">
-        <v>180.18</v>
+        <v>130.84</v>
       </c>
     </row>
     <row r="8">
@@ -617,7 +617,7 @@
         <v>PO</v>
       </c>
       <c r="B8">
-        <v>102.79</v>
+        <v>53.57</v>
       </c>
     </row>
     <row r="9">
@@ -625,7 +625,7 @@
         <v>LP</v>
       </c>
       <c r="B9">
-        <v>202.8</v>
+        <v>162.54</v>
       </c>
     </row>
     <row r="10">
@@ -633,23 +633,23 @@
         <v>AS</v>
       </c>
       <c r="B10">
-        <v>26.64</v>
+        <v>20.69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>JN</v>
+        <v>TN</v>
       </c>
       <c r="B11">
-        <v>60.58</v>
+        <v>98.58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>TN</v>
+        <v>JN</v>
       </c>
       <c r="B12">
-        <v>103.92</v>
+        <v>47.22</v>
       </c>
     </row>
     <row r="13">
@@ -657,7 +657,7 @@
         <v>SH</v>
       </c>
       <c r="B13">
-        <v>29.59</v>
+        <v>-3.59</v>
       </c>
     </row>
     <row r="14">
@@ -665,7 +665,7 @@
         <v>RD</v>
       </c>
       <c r="B14">
-        <v>16.47</v>
+        <v>12.45</v>
       </c>
     </row>
   </sheetData>
@@ -695,7 +695,7 @@
         <v>Amazon</v>
       </c>
       <c r="B2">
-        <v>1633.84</v>
+        <v>1442.8799999999999</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
         <v>Etsy</v>
       </c>
       <c r="B5">
-        <v>4852.450000000001</v>
+        <v>3679.42</v>
       </c>
     </row>
     <row r="6">
@@ -727,7 +727,7 @@
         <v>TOTAL</v>
       </c>
       <c r="B6">
-        <v>6591.43</v>
+        <v>5227.44</v>
       </c>
     </row>
   </sheetData>
